--- a/Data/Diagrams/Gantt.xlsx
+++ b/Data/Diagrams/Gantt.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srujal\Desktop\Meet Temp\promact-data\Data\Diagrams\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6DBE4-0963-41B6-8040-6DB8F41B2996}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Task</t>
   </si>
@@ -41,12 +47,15 @@
   <si>
     <t>Testing</t>
   </si>
+  <si>
+    <t xml:space="preserve">Database &amp; API Implementation </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +110,46 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -126,6 +165,7 @@
       <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -143,11 +183,12 @@
           <c:spPr>
             <a:noFill/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Requirement gethering</c:v>
                 </c:pt>
@@ -158,9 +199,12 @@
                   <c:v>Use case scenario</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Database &amp; API Implementation </c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>User Interface</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
@@ -168,10 +212,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>mm/dd/yyyy</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43454</c:v>
                 </c:pt>
@@ -182,14 +226,22 @@
                   <c:v>43501</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>43506</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43509</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-385E-473F-9E11-A39789537B44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -205,11 +257,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Requirement gethering</c:v>
                 </c:pt>
@@ -220,9 +273,12 @@
                   <c:v>Use case scenario</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Database &amp; API Implementation </c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>User Interface</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
@@ -230,10 +286,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -244,15 +300,32 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-385E-473F-9E11-A39789537B44}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
         <c:axId val="60902784"/>
         <c:axId val="103532416"/>
@@ -263,13 +336,18 @@
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="103532416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="103532416"/>
@@ -278,9 +356,12 @@
           <c:max val="43550"/>
           <c:min val="43454"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="mm/dd/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="60902784"/>
         <c:crosses val="autoZero"/>
@@ -288,6 +369,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -303,18 +386,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -375,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +496,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +548,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,20 +741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -640,7 +765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -651,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -662,7 +787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -673,35 +798,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43506</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>43509</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>43550</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>43454</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>43550</v>
       </c>
     </row>
@@ -713,24 +849,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
